--- a/src/assets/resource/5002_KPIs Performance Report_202004_PBO_089_Final.xlsx
+++ b/src/assets/resource/5002_KPIs Performance Report_202004_PBO_089_Final.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truonghuu/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DB8639-F8BA-EA49-8F89-7859523A48AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miroQMl+GlQR9qfqkyatqMDjILcyg=="/>
@@ -16,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="134">
   <si>
     <t>Vùng dữ liệu thực hiện</t>
   </si>
@@ -55,13 +64,6 @@
   </si>
   <si>
     <t>Họ &amp; tên</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Miscode CBKD</t>
-  </si>
-  <si>
-    <t>Miscode của Trưởng nhóm quản lý</t>
   </si>
   <si>
     <t>SHNV GĐ mảng, TBP, TPKD quản lý</t>
@@ -380,12 +382,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>D19917979</t>
-  </si>
-  <si>
-    <t>D00149277</t>
-  </si>
-  <si>
     <t>15290</t>
   </si>
   <si>
@@ -410,9 +406,6 @@
     <t>AB</t>
   </si>
   <si>
-    <t>D01754113</t>
-  </si>
-  <si>
     <t>04021</t>
   </si>
   <si>
@@ -424,66 +417,80 @@
   <si>
     <t>Premier Banking Officier</t>
   </si>
+  <si>
+    <t>joe</t>
+  </si>
+  <si>
+    <t>henry</t>
+  </si>
+  <si>
+    <t>Miscode của Trưởng nhóm quản lý</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Miscode CBKD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFC00000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -493,7 +500,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -521,7 +528,13 @@
     </fill>
   </fills>
   <borders count="15">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="hair">
         <color rgb="FF000000"/>
@@ -535,12 +548,14 @@
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -555,6 +570,7 @@
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="hair">
@@ -569,6 +585,7 @@
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -581,8 +598,10 @@
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="hair">
         <color rgb="FF000000"/>
       </right>
@@ -592,6 +611,7 @@
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="hair">
@@ -606,6 +626,7 @@
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="hair">
@@ -618,6 +639,7 @@
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -632,6 +654,7 @@
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -644,8 +667,10 @@
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="hair">
         <color rgb="FF000000"/>
       </right>
@@ -655,6 +680,7 @@
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="hair">
@@ -669,6 +695,7 @@
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="hair">
@@ -681,244 +708,253 @@
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="hair">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="hair">
         <color rgb="FF000000"/>
       </top>
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="72">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -929,28 +965,33 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1140,101 +1181,97 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:DX219"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="CJ1" workbookViewId="0">
+      <selection activeCell="CU10" sqref="CU10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="7.63"/>
-    <col customWidth="1" min="3" max="3" width="9.13"/>
-    <col customWidth="1" min="4" max="4" width="12.13"/>
-    <col customWidth="1" min="5" max="5" width="10.63"/>
-    <col customWidth="1" min="6" max="6" width="15.38"/>
-    <col customWidth="1" min="7" max="7" width="14.0"/>
-    <col customWidth="1" min="8" max="8" width="7.25"/>
-    <col customWidth="1" min="9" max="9" width="5.63"/>
-    <col customWidth="1" min="10" max="10" width="11.63"/>
-    <col customWidth="1" min="11" max="11" width="6.5"/>
-    <col customWidth="1" min="12" max="12" width="7.63"/>
-    <col customWidth="1" min="13" max="13" width="7.75"/>
-    <col customWidth="1" min="14" max="14" width="10.5"/>
-    <col customWidth="1" min="15" max="15" width="7.88"/>
-    <col customWidth="1" min="16" max="16" width="7.5"/>
-    <col customWidth="1" min="17" max="17" width="6.75"/>
-    <col customWidth="1" min="19" max="19" width="9.88"/>
-    <col customWidth="1" min="20" max="20" width="7.63"/>
-    <col customWidth="1" min="21" max="21" width="12.13"/>
-    <col customWidth="1" min="22" max="22" width="7.13"/>
-    <col customWidth="1" min="23" max="23" width="10.5"/>
-    <col customWidth="1" min="24" max="24" width="6.0"/>
-    <col customWidth="1" min="25" max="25" width="12.13"/>
-    <col customWidth="1" min="26" max="26" width="7.88"/>
-    <col customWidth="1" min="27" max="27" width="6.88"/>
-    <col customWidth="1" min="28" max="28" width="7.38"/>
-    <col customWidth="1" min="29" max="29" width="6.75"/>
-    <col customWidth="1" min="30" max="30" width="6.25"/>
-    <col customWidth="1" min="31" max="31" width="6.75"/>
-    <col customWidth="1" min="32" max="32" width="7.63"/>
-    <col customWidth="1" min="33" max="33" width="7.75"/>
-    <col customWidth="1" min="34" max="35" width="7.25"/>
-    <col customWidth="1" min="36" max="36" width="7.63"/>
-    <col customWidth="1" min="37" max="38" width="7.25"/>
-    <col customWidth="1" min="39" max="39" width="7.75"/>
-    <col customWidth="1" min="40" max="41" width="5.88"/>
-    <col customWidth="1" min="42" max="42" width="7.88"/>
-    <col customWidth="1" min="43" max="47" width="7.63"/>
-    <col customWidth="1" min="48" max="50" width="7.75"/>
-    <col customWidth="1" min="51" max="57" width="7.88"/>
-    <col customWidth="1" min="58" max="58" width="7.25"/>
-    <col customWidth="1" min="59" max="59" width="7.75"/>
-    <col customWidth="1" min="60" max="60" width="7.38"/>
-    <col customWidth="1" min="61" max="61" width="8.63"/>
-    <col customWidth="1" min="62" max="62" width="6.5"/>
-    <col customWidth="1" min="63" max="63" width="6.0"/>
-    <col customWidth="1" min="64" max="64" width="6.5"/>
-    <col customWidth="1" min="65" max="65" width="7.88"/>
-    <col customWidth="1" min="66" max="66" width="6.5"/>
-    <col customWidth="1" min="67" max="67" width="6.75"/>
-    <col customWidth="1" min="68" max="68" width="5.88"/>
-    <col customWidth="1" min="69" max="69" width="7.88"/>
-    <col customWidth="1" min="70" max="70" width="6.5"/>
-    <col customWidth="1" min="71" max="74" width="7.88"/>
-    <col customWidth="1" min="75" max="75" width="5.88"/>
-    <col customWidth="1" min="76" max="76" width="6.25"/>
-    <col customWidth="1" min="77" max="80" width="7.63"/>
-    <col customWidth="1" min="81" max="81" width="7.5"/>
-    <col customWidth="1" min="82" max="82" width="7.0"/>
-    <col customWidth="1" min="83" max="83" width="7.88"/>
-    <col customWidth="1" min="84" max="85" width="7.63"/>
-    <col customWidth="1" min="87" max="87" width="9.88"/>
-    <col customWidth="1" min="88" max="88" width="7.63"/>
-    <col customWidth="1" min="89" max="89" width="7.5"/>
-    <col customWidth="1" min="90" max="90" width="7.63"/>
-    <col customWidth="1" min="91" max="91" width="7.75"/>
-    <col customWidth="1" min="92" max="93" width="7.63"/>
-    <col customWidth="1" min="94" max="94" width="7.75"/>
-    <col customWidth="1" min="95" max="96" width="7.88"/>
-    <col customWidth="1" min="97" max="97" width="7.0"/>
-    <col customWidth="1" min="98" max="99" width="7.88"/>
-    <col customWidth="1" min="100" max="100" width="6.63"/>
-    <col customWidth="1" min="101" max="101" width="8.63"/>
-    <col customWidth="1" min="102" max="102" width="7.38"/>
-    <col customWidth="1" min="103" max="103" width="7.63"/>
-    <col customWidth="1" min="104" max="105" width="7.13"/>
-    <col customWidth="1" min="106" max="106" width="7.63"/>
-    <col customWidth="1" min="107" max="107" width="9.63"/>
-    <col customWidth="1" min="108" max="128" width="7.63"/>
+    <col min="1" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="6.5" customWidth="1"/>
+    <col min="12" max="13" width="7.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.5" customWidth="1"/>
+    <col min="15" max="15" width="7.83203125" customWidth="1"/>
+    <col min="16" max="16" width="7.5" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" customWidth="1"/>
+    <col min="19" max="19" width="9.83203125" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" customWidth="1"/>
+    <col min="21" max="21" width="12.1640625" customWidth="1"/>
+    <col min="22" max="22" width="7.1640625" customWidth="1"/>
+    <col min="23" max="23" width="10.5" customWidth="1"/>
+    <col min="24" max="24" width="6" customWidth="1"/>
+    <col min="25" max="25" width="12.1640625" customWidth="1"/>
+    <col min="26" max="26" width="7.83203125" customWidth="1"/>
+    <col min="27" max="27" width="6.83203125" customWidth="1"/>
+    <col min="28" max="28" width="7.33203125" customWidth="1"/>
+    <col min="29" max="29" width="6.6640625" customWidth="1"/>
+    <col min="30" max="30" width="6.1640625" customWidth="1"/>
+    <col min="31" max="31" width="6.6640625" customWidth="1"/>
+    <col min="32" max="33" width="7.6640625" customWidth="1"/>
+    <col min="34" max="35" width="7.1640625" customWidth="1"/>
+    <col min="36" max="36" width="7.6640625" customWidth="1"/>
+    <col min="37" max="38" width="7.1640625" customWidth="1"/>
+    <col min="39" max="39" width="7.6640625" customWidth="1"/>
+    <col min="40" max="41" width="5.83203125" customWidth="1"/>
+    <col min="42" max="42" width="7.83203125" customWidth="1"/>
+    <col min="43" max="50" width="7.6640625" customWidth="1"/>
+    <col min="51" max="57" width="7.83203125" customWidth="1"/>
+    <col min="58" max="58" width="7.1640625" customWidth="1"/>
+    <col min="59" max="59" width="7.6640625" customWidth="1"/>
+    <col min="60" max="60" width="7.33203125" customWidth="1"/>
+    <col min="61" max="61" width="8.6640625" customWidth="1"/>
+    <col min="62" max="62" width="6.5" customWidth="1"/>
+    <col min="63" max="63" width="6" customWidth="1"/>
+    <col min="64" max="64" width="6.5" customWidth="1"/>
+    <col min="65" max="65" width="7.83203125" customWidth="1"/>
+    <col min="66" max="66" width="6.5" customWidth="1"/>
+    <col min="67" max="67" width="6.6640625" customWidth="1"/>
+    <col min="68" max="68" width="5.83203125" customWidth="1"/>
+    <col min="69" max="69" width="7.83203125" customWidth="1"/>
+    <col min="70" max="70" width="6.5" customWidth="1"/>
+    <col min="71" max="74" width="7.83203125" customWidth="1"/>
+    <col min="75" max="75" width="5.83203125" customWidth="1"/>
+    <col min="76" max="76" width="6.1640625" customWidth="1"/>
+    <col min="77" max="80" width="7.6640625" customWidth="1"/>
+    <col min="81" max="81" width="7.5" customWidth="1"/>
+    <col min="82" max="82" width="7" customWidth="1"/>
+    <col min="83" max="83" width="7.83203125" customWidth="1"/>
+    <col min="84" max="85" width="7.6640625" customWidth="1"/>
+    <col min="87" max="87" width="9.83203125" customWidth="1"/>
+    <col min="88" max="88" width="7.6640625" customWidth="1"/>
+    <col min="89" max="89" width="7.5" customWidth="1"/>
+    <col min="90" max="94" width="7.6640625" customWidth="1"/>
+    <col min="95" max="96" width="7.83203125" customWidth="1"/>
+    <col min="97" max="97" width="7" customWidth="1"/>
+    <col min="98" max="99" width="7.83203125" customWidth="1"/>
+    <col min="100" max="100" width="6.6640625" customWidth="1"/>
+    <col min="101" max="101" width="8.6640625" customWidth="1"/>
+    <col min="102" max="102" width="7.33203125" customWidth="1"/>
+    <col min="103" max="103" width="7.6640625" customWidth="1"/>
+    <col min="104" max="105" width="7.1640625" customWidth="1"/>
+    <col min="106" max="106" width="7.6640625" customWidth="1"/>
+    <col min="107" max="107" width="9.6640625" customWidth="1"/>
+    <col min="108" max="128" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1366,7 +1403,7 @@
       <c r="DW1" s="10"/>
       <c r="DX1" s="10"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1498,7 +1535,7 @@
       <c r="DW2" s="10"/>
       <c r="DX2" s="10"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -1630,7 +1667,7 @@
       <c r="DW3" s="10"/>
       <c r="DX3" s="10"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -1762,7 +1799,7 @@
       <c r="DW4" s="10"/>
       <c r="DX4" s="10"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1892,7 +1929,7 @@
       <c r="DW5" s="10"/>
       <c r="DX5" s="10"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
@@ -2024,7 +2061,7 @@
       <c r="DW6" s="10"/>
       <c r="DX6" s="10"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
         <v>5</v>
       </c>
@@ -2158,7 +2195,7 @@
       <c r="DW7" s="8"/>
       <c r="DX7" s="8"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
         <v>7</v>
       </c>
@@ -2294,7 +2331,7 @@
       <c r="DW8" s="8"/>
       <c r="DX8" s="8"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17"/>
       <c r="B9" s="2"/>
       <c r="C9" s="20"/>
@@ -2424,7 +2461,7 @@
       <c r="DW9" s="8"/>
       <c r="DX9" s="8"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:128" ht="154" x14ac:dyDescent="0.15">
       <c r="A10" s="21" t="s">
         <v>10</v>
       </c>
@@ -2435,329 +2472,323 @@
         <v>12</v>
       </c>
       <c r="D10" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="G10" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="H10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="I10" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="J10" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="K10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="L10" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="M10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="27" t="s">
+      <c r="N10" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="O10" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="29" t="s">
+      <c r="P10" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="30" t="s">
+      <c r="Q10" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="26" t="s">
+      <c r="R10" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="Q10" s="31" t="s">
+      <c r="S10" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="R10" s="32" t="s">
+      <c r="T10" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="33" t="s">
+      <c r="U10" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="T10" s="34" t="s">
+      <c r="V10" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="U10" s="33" t="s">
+      <c r="W10" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="V10" s="34" t="s">
+      <c r="X10" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="33" t="s">
+      <c r="Y10" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="X10" s="34" t="s">
+      <c r="Z10" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="Y10" s="33" t="s">
+      <c r="AA10" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="Z10" s="34" t="s">
+      <c r="AB10" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="AA10" s="26" t="s">
+      <c r="AC10" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AB10" s="34" t="s">
+      <c r="AD10" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AC10" s="25" t="s">
+      <c r="AE10" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AD10" s="25" t="s">
+      <c r="AF10" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AE10" s="25" t="s">
+      <c r="AG10" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="AF10" s="25" t="s">
+      <c r="AH10" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AG10" s="35" t="s">
+      <c r="AI10" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="AH10" s="33" t="s">
+      <c r="AJ10" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="AI10" s="33" t="s">
+      <c r="AK10" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AJ10" s="33" t="s">
+      <c r="AL10" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="AK10" s="33" t="s">
+      <c r="AM10" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="AL10" s="33" t="s">
+      <c r="AN10" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="AM10" s="34" t="s">
+      <c r="AO10" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="AN10" s="33" t="s">
+      <c r="AP10" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="AO10" s="33" t="s">
+      <c r="AQ10" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="AP10" s="34" t="s">
+      <c r="AR10" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="AQ10" s="33" t="s">
+      <c r="AS10" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="AR10" s="33" t="s">
+      <c r="AT10" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="AS10" s="33" t="s">
+      <c r="AU10" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="AT10" s="33" t="s">
+      <c r="AV10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="AU10" s="33" t="s">
+      <c r="AW10" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="AV10" s="34" t="s">
+      <c r="AX10" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="AW10" s="33" t="s">
+      <c r="AY10" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="AX10" s="33" t="s">
+      <c r="AZ10" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="AY10" s="34" t="s">
+      <c r="BA10" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="AZ10" s="33" t="s">
+      <c r="BB10" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="BA10" s="33" t="s">
+      <c r="BC10" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="BB10" s="33" t="s">
+      <c r="BD10" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="BC10" s="33" t="s">
+      <c r="BE10" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="BD10" s="33" t="s">
+      <c r="BF10" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="BE10" s="33" t="s">
+      <c r="BG10" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="BF10" s="33" t="s">
+      <c r="BH10" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="BG10" s="34" t="s">
+      <c r="BI10" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="BH10" s="34" t="s">
+      <c r="BJ10" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="BI10" s="26" t="s">
+      <c r="BK10" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="BJ10" s="34" t="s">
+      <c r="BL10" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="BK10" s="26" t="s">
+      <c r="BM10" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="BL10" s="34" t="s">
+      <c r="BN10" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="BM10" s="26" t="s">
+      <c r="BO10" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="BN10" s="34" t="s">
+      <c r="BP10" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="BO10" s="26" t="s">
+      <c r="BQ10" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="BP10" s="26" t="s">
+      <c r="BR10" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="BQ10" s="26" t="s">
+      <c r="BS10" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="BR10" s="34" t="s">
+      <c r="BT10" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="BS10" s="26" t="s">
+      <c r="BU10" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="BT10" s="26" t="s">
+      <c r="BV10" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="BU10" s="26" t="s">
+      <c r="BW10" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="BV10" s="26" t="s">
+      <c r="BX10" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="BW10" s="34" t="s">
+      <c r="BY10" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="BX10" s="26" t="s">
+      <c r="BZ10" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="BY10" s="34" t="s">
+      <c r="CA10" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="BZ10" s="26" t="s">
+      <c r="CB10" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="CA10" s="34" t="s">
+      <c r="CC10" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="CB10" s="26" t="s">
+      <c r="CD10" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="CC10" s="35" t="s">
+      <c r="CE10" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="CD10" s="36" t="s">
+      <c r="CF10" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="CE10" s="32" t="s">
+      <c r="CG10" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="CF10" s="33" t="s">
+      <c r="CH10" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="CG10" s="37" t="s">
+      <c r="CI10" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="CH10" s="38" t="s">
+      <c r="CJ10" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="CI10" s="25" t="s">
+      <c r="CK10" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="CJ10" s="39" t="s">
+      <c r="CL10" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="CK10" s="25" t="s">
+      <c r="CM10" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="CL10" s="25" t="s">
+      <c r="CN10" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="CM10" s="39" t="s">
+      <c r="CO10" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="CN10" s="25" t="s">
+      <c r="CP10" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="CO10" s="25" t="s">
+      <c r="CQ10" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="CP10" s="40" t="s">
+      <c r="CR10" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="CQ10" s="21" t="s">
+      <c r="CS10" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="CR10" s="26" t="s">
+      <c r="CT10" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="CS10" s="26" t="s">
+      <c r="CU10" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="CT10" s="36" t="s">
+      <c r="CV10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="CU10" s="37" t="s">
+      <c r="CW10" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="CV10" s="21" t="s">
+      <c r="CX10" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="CW10" s="41" t="s">
+      <c r="CY10" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="CX10" s="35" t="s">
+      <c r="CZ10" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="CY10" s="35" t="s">
+      <c r="DA10" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="CZ10" s="35" t="s">
+      <c r="DB10" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="DA10" s="35" t="s">
+      <c r="DC10" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="DB10" s="37" t="s">
+      <c r="DD10" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="DC10" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="DD10" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="DE10" s="44">
-        <v>1.0</v>
-      </c>
-      <c r="DF10" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="DG10" s="44">
-        <v>3.0</v>
-      </c>
+      <c r="DE10" s="44"/>
+      <c r="DF10" s="44"/>
+      <c r="DG10" s="44"/>
       <c r="DH10" s="44"/>
       <c r="DI10" s="44"/>
       <c r="DJ10" s="44"/>
@@ -2776,252 +2807,252 @@
       <c r="DW10" s="44"/>
       <c r="DX10" s="44"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="45">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B11" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="G11" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="H11" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="I11" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="J11" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="G11" s="47" t="s">
+      <c r="K11" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="H11" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="J11" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="K11" s="48" t="s">
-        <v>127</v>
-      </c>
       <c r="L11" s="49">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="M11" s="50">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="N11" s="51">
-        <v>2.5E7</v>
+        <v>25000000</v>
       </c>
       <c r="O11" s="52">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="P11" s="53">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="54">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="R11" s="55">
-        <v>-6.630579152E9</v>
+        <v>-6630579152</v>
       </c>
       <c r="S11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T11" s="56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>1.15437973535E11</v>
+        <v>115437973535</v>
       </c>
       <c r="V11" s="56">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="W11" s="1">
-        <v>5.99999</v>
+        <v>5.9999900000000004</v>
       </c>
       <c r="X11" s="56">
-        <v>3.599994E-7</v>
+        <v>3.5999939999999999E-7</v>
       </c>
       <c r="Y11" s="1">
-        <v>5.295481033328E7</v>
+        <v>52954810.333279997</v>
       </c>
       <c r="Z11" s="56">
         <v>3.1772886199967996</v>
       </c>
       <c r="AA11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AP11" s="56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV11" s="56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BE11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BF11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BG11" s="56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH11" s="56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>9.532758066450684E7</v>
+        <v>95327580.664506838</v>
       </c>
       <c r="BJ11" s="56">
-        <v>953.2758066450684</v>
+        <v>953.27580664506843</v>
       </c>
       <c r="BK11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BL11" s="56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BM11" s="1">
-        <v>3083478.0</v>
+        <v>3083478</v>
       </c>
       <c r="BN11" s="56">
         <v>61.669560000000004</v>
       </c>
       <c r="BO11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BP11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BQ11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BR11" s="56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BT11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BU11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BV11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BW11" s="56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BY11" s="56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="CA11" s="56">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="CB11" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="CC11" s="56">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="CD11" s="57">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="CE11" s="58">
         <v>1328.1226556250647</v>
@@ -3033,31 +3064,31 @@
         <v>1328.1226556250647</v>
       </c>
       <c r="CH11" s="60">
-        <v>-6.630579152E9</v>
+        <v>-6630579152</v>
       </c>
       <c r="CI11" s="53">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="CJ11" s="61">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="CK11" s="53">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="CL11" s="53">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="CM11" s="61">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="CN11" s="53">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="CO11" s="53">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="CP11" s="62">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="CQ11" s="58">
         <v>1328.1226556250647</v>
@@ -3066,34 +3097,34 @@
         <v>1328.1226556250647</v>
       </c>
       <c r="CS11" s="59">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="CT11" s="57">
         <v>1328.1226556250647</v>
       </c>
       <c r="CU11" s="63">
-        <v>506.5594523125841</v>
+        <v>506.55945231258409</v>
       </c>
       <c r="CV11" s="60">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="CW11" s="53">
-        <v>1.2E7</v>
+        <v>12000000</v>
       </c>
       <c r="CX11" s="64">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CY11" s="53">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="CZ11" s="53">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="DA11" s="65">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="DB11" s="63">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="DC11" s="66">
         <v>1772958.0830940444</v>
@@ -3122,330 +3153,330 @@
       <c r="DW11" s="8"/>
       <c r="DX11" s="8"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="45">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D12" s="47" t="s">
         <v>130</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G12" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="I12" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="J12" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="K12" s="48" t="s">
-        <v>127</v>
-      </c>
       <c r="L12" s="49">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="M12" s="50">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="N12" s="51">
-        <v>2.5E7</v>
+        <v>25000000</v>
       </c>
       <c r="O12" s="52">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="P12" s="53">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="54">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="R12" s="55">
-        <v>-1.5E8</v>
+        <v>-150000000</v>
       </c>
       <c r="S12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T12" s="56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>1.04425910724E11</v>
+        <v>104425910724</v>
       </c>
       <c r="V12" s="56">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="W12" s="1">
-        <v>3410329.4666</v>
+        <v>3410329.4665999999</v>
       </c>
       <c r="X12" s="56">
         <v>0.20461976799599998</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AP12" s="56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV12" s="56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BF12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BG12" s="56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH12" s="56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>233642.906</v>
+        <v>233642.90599999999</v>
       </c>
       <c r="BJ12" s="56">
-        <v>2.33642906</v>
+        <v>2.3364290599999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BL12" s="56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BO12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BP12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BQ12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BR12" s="56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BT12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BU12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BV12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BW12" s="56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BY12" s="56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BZ12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="CA12" s="56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="CD12" s="57">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="CE12" s="58">
-        <v>302.541048827996</v>
+        <v>302.54104882799601</v>
       </c>
       <c r="CF12" s="59">
-        <v>302.541048827996</v>
+        <v>302.54104882799601</v>
       </c>
       <c r="CG12" s="54">
-        <v>302.541048827996</v>
+        <v>302.54104882799601</v>
       </c>
       <c r="CH12" s="60">
-        <v>-1.5E8</v>
+        <v>-150000000</v>
       </c>
       <c r="CI12" s="53">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="CJ12" s="61">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="CK12" s="53">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="CL12" s="53">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="CM12" s="61">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="CN12" s="53">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="CO12" s="53">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="CP12" s="62">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="CQ12" s="58">
-        <v>302.541048827996</v>
+        <v>302.54104882799601</v>
       </c>
       <c r="CR12" s="59">
-        <v>302.541048827996</v>
+        <v>302.54104882799601</v>
       </c>
       <c r="CS12" s="59">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="CT12" s="57">
-        <v>302.541048827996</v>
+        <v>302.54104882799601</v>
       </c>
       <c r="CU12" s="63">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="CV12" s="60">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="CW12" s="53">
-        <v>1.2E7</v>
+        <v>12000000</v>
       </c>
       <c r="CX12" s="64">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="CY12" s="53">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="CZ12" s="53">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="DA12" s="65">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="DB12" s="63">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="DC12" s="66">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="DD12" s="67">
-        <v>0.302541048827996</v>
+        <v>0.30254104882799598</v>
       </c>
       <c r="DE12" s="8"/>
       <c r="DF12" s="8"/>
@@ -3468,7 +3499,7 @@
       <c r="DW12" s="8"/>
       <c r="DX12" s="8"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -3598,7 +3629,7 @@
       <c r="DW13" s="10"/>
       <c r="DX13" s="10"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -3728,7 +3759,7 @@
       <c r="DW14" s="10"/>
       <c r="DX14" s="10"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -3858,7 +3889,7 @@
       <c r="DW15" s="10"/>
       <c r="DX15" s="10"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -3988,7 +4019,7 @@
       <c r="DW16" s="10"/>
       <c r="DX16" s="10"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -4118,7 +4149,7 @@
       <c r="DW17" s="10"/>
       <c r="DX17" s="10"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -4248,7 +4279,7 @@
       <c r="DW18" s="10"/>
       <c r="DX18" s="10"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -4378,7 +4409,7 @@
       <c r="DW19" s="10"/>
       <c r="DX19" s="10"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -4508,7 +4539,7 @@
       <c r="DW20" s="10"/>
       <c r="DX20" s="10"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -4638,7 +4669,7 @@
       <c r="DW21" s="10"/>
       <c r="DX21" s="10"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -4768,7 +4799,7 @@
       <c r="DW22" s="10"/>
       <c r="DX22" s="10"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -4778,7 +4809,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="71" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -4900,7 +4931,7 @@
       <c r="DW23" s="10"/>
       <c r="DX23" s="10"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -4910,7 +4941,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="71" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
@@ -5032,7 +5063,7 @@
       <c r="DW24" s="10"/>
       <c r="DX24" s="10"/>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -5042,7 +5073,7 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="71" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -5164,7 +5195,7 @@
       <c r="DW25" s="10"/>
       <c r="DX25" s="10"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -5294,7 +5325,7 @@
       <c r="DW26" s="10"/>
       <c r="DX26" s="10"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -5424,7 +5455,7 @@
       <c r="DW27" s="10"/>
       <c r="DX27" s="10"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -5554,7 +5585,7 @@
       <c r="DW28" s="10"/>
       <c r="DX28" s="10"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -5684,7 +5715,7 @@
       <c r="DW29" s="10"/>
       <c r="DX29" s="10"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -5814,7 +5845,7 @@
       <c r="DW30" s="10"/>
       <c r="DX30" s="10"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -5944,7 +5975,7 @@
       <c r="DW31" s="10"/>
       <c r="DX31" s="10"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -6074,7 +6105,7 @@
       <c r="DW32" s="10"/>
       <c r="DX32" s="10"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -6204,7 +6235,7 @@
       <c r="DW33" s="10"/>
       <c r="DX33" s="10"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -6334,7 +6365,7 @@
       <c r="DW34" s="10"/>
       <c r="DX34" s="10"/>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -6464,7 +6495,7 @@
       <c r="DW35" s="10"/>
       <c r="DX35" s="10"/>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -6594,7 +6625,7 @@
       <c r="DW36" s="10"/>
       <c r="DX36" s="10"/>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -6724,7 +6755,7 @@
       <c r="DW37" s="10"/>
       <c r="DX37" s="10"/>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -6854,7 +6885,7 @@
       <c r="DW38" s="10"/>
       <c r="DX38" s="10"/>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -6984,7 +7015,7 @@
       <c r="DW39" s="10"/>
       <c r="DX39" s="10"/>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -7114,7 +7145,7 @@
       <c r="DW40" s="10"/>
       <c r="DX40" s="10"/>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -7244,7 +7275,7 @@
       <c r="DW41" s="10"/>
       <c r="DX41" s="10"/>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -7374,7 +7405,7 @@
       <c r="DW42" s="10"/>
       <c r="DX42" s="10"/>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -7504,7 +7535,7 @@
       <c r="DW43" s="10"/>
       <c r="DX43" s="10"/>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -7634,7 +7665,7 @@
       <c r="DW44" s="10"/>
       <c r="DX44" s="10"/>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -7764,7 +7795,7 @@
       <c r="DW45" s="10"/>
       <c r="DX45" s="10"/>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -7894,7 +7925,7 @@
       <c r="DW46" s="10"/>
       <c r="DX46" s="10"/>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -8024,7 +8055,7 @@
       <c r="DW47" s="10"/>
       <c r="DX47" s="10"/>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -8154,7 +8185,7 @@
       <c r="DW48" s="10"/>
       <c r="DX48" s="10"/>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -8284,7 +8315,7 @@
       <c r="DW49" s="10"/>
       <c r="DX49" s="10"/>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -8414,7 +8445,7 @@
       <c r="DW50" s="10"/>
       <c r="DX50" s="10"/>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -8544,7 +8575,7 @@
       <c r="DW51" s="10"/>
       <c r="DX51" s="10"/>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -8674,7 +8705,7 @@
       <c r="DW52" s="10"/>
       <c r="DX52" s="10"/>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -8804,7 +8835,7 @@
       <c r="DW53" s="10"/>
       <c r="DX53" s="10"/>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -8934,7 +8965,7 @@
       <c r="DW54" s="10"/>
       <c r="DX54" s="10"/>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -9064,7 +9095,7 @@
       <c r="DW55" s="10"/>
       <c r="DX55" s="10"/>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -9194,7 +9225,7 @@
       <c r="DW56" s="10"/>
       <c r="DX56" s="10"/>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -9324,7 +9355,7 @@
       <c r="DW57" s="10"/>
       <c r="DX57" s="10"/>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -9454,7 +9485,7 @@
       <c r="DW58" s="10"/>
       <c r="DX58" s="10"/>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -9584,7 +9615,7 @@
       <c r="DW59" s="10"/>
       <c r="DX59" s="10"/>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -9714,7 +9745,7 @@
       <c r="DW60" s="10"/>
       <c r="DX60" s="10"/>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -9844,7 +9875,7 @@
       <c r="DW61" s="10"/>
       <c r="DX61" s="10"/>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -9974,7 +10005,7 @@
       <c r="DW62" s="10"/>
       <c r="DX62" s="10"/>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -10104,7 +10135,7 @@
       <c r="DW63" s="10"/>
       <c r="DX63" s="10"/>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -10234,7 +10265,7 @@
       <c r="DW64" s="10"/>
       <c r="DX64" s="10"/>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -10364,7 +10395,7 @@
       <c r="DW65" s="10"/>
       <c r="DX65" s="10"/>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -10494,7 +10525,7 @@
       <c r="DW66" s="10"/>
       <c r="DX66" s="10"/>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -10624,7 +10655,7 @@
       <c r="DW67" s="10"/>
       <c r="DX67" s="10"/>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -10754,7 +10785,7 @@
       <c r="DW68" s="10"/>
       <c r="DX68" s="10"/>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -10884,7 +10915,7 @@
       <c r="DW69" s="10"/>
       <c r="DX69" s="10"/>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -11014,7 +11045,7 @@
       <c r="DW70" s="10"/>
       <c r="DX70" s="10"/>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -11144,7 +11175,7 @@
       <c r="DW71" s="10"/>
       <c r="DX71" s="10"/>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -11274,7 +11305,7 @@
       <c r="DW72" s="10"/>
       <c r="DX72" s="10"/>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -11404,7 +11435,7 @@
       <c r="DW73" s="10"/>
       <c r="DX73" s="10"/>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -11534,7 +11565,7 @@
       <c r="DW74" s="10"/>
       <c r="DX74" s="10"/>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -11664,7 +11695,7 @@
       <c r="DW75" s="10"/>
       <c r="DX75" s="10"/>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -11794,7 +11825,7 @@
       <c r="DW76" s="10"/>
       <c r="DX76" s="10"/>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -11924,7 +11955,7 @@
       <c r="DW77" s="10"/>
       <c r="DX77" s="10"/>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -12054,7 +12085,7 @@
       <c r="DW78" s="10"/>
       <c r="DX78" s="10"/>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -12184,7 +12215,7 @@
       <c r="DW79" s="10"/>
       <c r="DX79" s="10"/>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -12314,7 +12345,7 @@
       <c r="DW80" s="10"/>
       <c r="DX80" s="10"/>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -12444,7 +12475,7 @@
       <c r="DW81" s="10"/>
       <c r="DX81" s="10"/>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
+    <row r="82" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -12574,7 +12605,7 @@
       <c r="DW82" s="10"/>
       <c r="DX82" s="10"/>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
+    <row r="83" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -12704,7 +12735,7 @@
       <c r="DW83" s="10"/>
       <c r="DX83" s="10"/>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
+    <row r="84" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -12834,7 +12865,7 @@
       <c r="DW84" s="10"/>
       <c r="DX84" s="10"/>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
+    <row r="85" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -12964,7 +12995,7 @@
       <c r="DW85" s="10"/>
       <c r="DX85" s="10"/>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
+    <row r="86" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -13094,7 +13125,7 @@
       <c r="DW86" s="10"/>
       <c r="DX86" s="10"/>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
+    <row r="87" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -13224,7 +13255,7 @@
       <c r="DW87" s="10"/>
       <c r="DX87" s="10"/>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
+    <row r="88" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -13354,7 +13385,7 @@
       <c r="DW88" s="10"/>
       <c r="DX88" s="10"/>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
+    <row r="89" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -13484,7 +13515,7 @@
       <c r="DW89" s="10"/>
       <c r="DX89" s="10"/>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -13614,7 +13645,7 @@
       <c r="DW90" s="10"/>
       <c r="DX90" s="10"/>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
+    <row r="91" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -13744,7 +13775,7 @@
       <c r="DW91" s="10"/>
       <c r="DX91" s="10"/>
     </row>
-    <row r="92" ht="14.25" customHeight="1">
+    <row r="92" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -13874,7 +13905,7 @@
       <c r="DW92" s="10"/>
       <c r="DX92" s="10"/>
     </row>
-    <row r="93" ht="14.25" customHeight="1">
+    <row r="93" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -14004,7 +14035,7 @@
       <c r="DW93" s="10"/>
       <c r="DX93" s="10"/>
     </row>
-    <row r="94" ht="14.25" customHeight="1">
+    <row r="94" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -14134,7 +14165,7 @@
       <c r="DW94" s="10"/>
       <c r="DX94" s="10"/>
     </row>
-    <row r="95" ht="14.25" customHeight="1">
+    <row r="95" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -14264,7 +14295,7 @@
       <c r="DW95" s="10"/>
       <c r="DX95" s="10"/>
     </row>
-    <row r="96" ht="14.25" customHeight="1">
+    <row r="96" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -14394,7 +14425,7 @@
       <c r="DW96" s="10"/>
       <c r="DX96" s="10"/>
     </row>
-    <row r="97" ht="14.25" customHeight="1">
+    <row r="97" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -14524,7 +14555,7 @@
       <c r="DW97" s="10"/>
       <c r="DX97" s="10"/>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
+    <row r="98" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -14654,7 +14685,7 @@
       <c r="DW98" s="10"/>
       <c r="DX98" s="10"/>
     </row>
-    <row r="99" ht="14.25" customHeight="1">
+    <row r="99" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -14784,7 +14815,7 @@
       <c r="DW99" s="10"/>
       <c r="DX99" s="10"/>
     </row>
-    <row r="100" ht="14.25" customHeight="1">
+    <row r="100" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -14914,7 +14945,7 @@
       <c r="DW100" s="10"/>
       <c r="DX100" s="10"/>
     </row>
-    <row r="101" ht="14.25" customHeight="1">
+    <row r="101" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -15044,7 +15075,7 @@
       <c r="DW101" s="10"/>
       <c r="DX101" s="10"/>
     </row>
-    <row r="102" ht="14.25" customHeight="1">
+    <row r="102" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -15174,7 +15205,7 @@
       <c r="DW102" s="10"/>
       <c r="DX102" s="10"/>
     </row>
-    <row r="103" ht="14.25" customHeight="1">
+    <row r="103" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -15304,7 +15335,7 @@
       <c r="DW103" s="10"/>
       <c r="DX103" s="10"/>
     </row>
-    <row r="104" ht="14.25" customHeight="1">
+    <row r="104" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -15434,7 +15465,7 @@
       <c r="DW104" s="10"/>
       <c r="DX104" s="10"/>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
+    <row r="105" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -15564,7 +15595,7 @@
       <c r="DW105" s="10"/>
       <c r="DX105" s="10"/>
     </row>
-    <row r="106" ht="14.25" customHeight="1">
+    <row r="106" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -15694,7 +15725,7 @@
       <c r="DW106" s="10"/>
       <c r="DX106" s="10"/>
     </row>
-    <row r="107" ht="14.25" customHeight="1">
+    <row r="107" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -15824,7 +15855,7 @@
       <c r="DW107" s="10"/>
       <c r="DX107" s="10"/>
     </row>
-    <row r="108" ht="14.25" customHeight="1">
+    <row r="108" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -15954,7 +15985,7 @@
       <c r="DW108" s="10"/>
       <c r="DX108" s="10"/>
     </row>
-    <row r="109" ht="14.25" customHeight="1">
+    <row r="109" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -16084,7 +16115,7 @@
       <c r="DW109" s="10"/>
       <c r="DX109" s="10"/>
     </row>
-    <row r="110" ht="14.25" customHeight="1">
+    <row r="110" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -16214,7 +16245,7 @@
       <c r="DW110" s="10"/>
       <c r="DX110" s="10"/>
     </row>
-    <row r="111" ht="14.25" customHeight="1">
+    <row r="111" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -16344,7 +16375,7 @@
       <c r="DW111" s="10"/>
       <c r="DX111" s="10"/>
     </row>
-    <row r="112" ht="14.25" customHeight="1">
+    <row r="112" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -16474,7 +16505,7 @@
       <c r="DW112" s="10"/>
       <c r="DX112" s="10"/>
     </row>
-    <row r="113" ht="14.25" customHeight="1">
+    <row r="113" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -16604,7 +16635,7 @@
       <c r="DW113" s="10"/>
       <c r="DX113" s="10"/>
     </row>
-    <row r="114" ht="14.25" customHeight="1">
+    <row r="114" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -16734,7 +16765,7 @@
       <c r="DW114" s="10"/>
       <c r="DX114" s="10"/>
     </row>
-    <row r="115" ht="14.25" customHeight="1">
+    <row r="115" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -16864,7 +16895,7 @@
       <c r="DW115" s="10"/>
       <c r="DX115" s="10"/>
     </row>
-    <row r="116" ht="14.25" customHeight="1">
+    <row r="116" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -16994,7 +17025,7 @@
       <c r="DW116" s="10"/>
       <c r="DX116" s="10"/>
     </row>
-    <row r="117" ht="14.25" customHeight="1">
+    <row r="117" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -17124,7 +17155,7 @@
       <c r="DW117" s="10"/>
       <c r="DX117" s="10"/>
     </row>
-    <row r="118" ht="14.25" customHeight="1">
+    <row r="118" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -17254,7 +17285,7 @@
       <c r="DW118" s="10"/>
       <c r="DX118" s="10"/>
     </row>
-    <row r="119" ht="14.25" customHeight="1">
+    <row r="119" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -17384,7 +17415,7 @@
       <c r="DW119" s="10"/>
       <c r="DX119" s="10"/>
     </row>
-    <row r="120" ht="14.25" customHeight="1">
+    <row r="120" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -17514,7 +17545,7 @@
       <c r="DW120" s="10"/>
       <c r="DX120" s="10"/>
     </row>
-    <row r="121" ht="14.25" customHeight="1">
+    <row r="121" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -17644,7 +17675,7 @@
       <c r="DW121" s="10"/>
       <c r="DX121" s="10"/>
     </row>
-    <row r="122" ht="14.25" customHeight="1">
+    <row r="122" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -17774,7 +17805,7 @@
       <c r="DW122" s="10"/>
       <c r="DX122" s="10"/>
     </row>
-    <row r="123" ht="14.25" customHeight="1">
+    <row r="123" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -17904,7 +17935,7 @@
       <c r="DW123" s="10"/>
       <c r="DX123" s="10"/>
     </row>
-    <row r="124" ht="14.25" customHeight="1">
+    <row r="124" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -18034,7 +18065,7 @@
       <c r="DW124" s="10"/>
       <c r="DX124" s="10"/>
     </row>
-    <row r="125" ht="14.25" customHeight="1">
+    <row r="125" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -18164,7 +18195,7 @@
       <c r="DW125" s="10"/>
       <c r="DX125" s="10"/>
     </row>
-    <row r="126" ht="14.25" customHeight="1">
+    <row r="126" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -18294,7 +18325,7 @@
       <c r="DW126" s="10"/>
       <c r="DX126" s="10"/>
     </row>
-    <row r="127" ht="14.25" customHeight="1">
+    <row r="127" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -18424,7 +18455,7 @@
       <c r="DW127" s="10"/>
       <c r="DX127" s="10"/>
     </row>
-    <row r="128" ht="14.25" customHeight="1">
+    <row r="128" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -18554,7 +18585,7 @@
       <c r="DW128" s="10"/>
       <c r="DX128" s="10"/>
     </row>
-    <row r="129" ht="14.25" customHeight="1">
+    <row r="129" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -18684,7 +18715,7 @@
       <c r="DW129" s="10"/>
       <c r="DX129" s="10"/>
     </row>
-    <row r="130" ht="14.25" customHeight="1">
+    <row r="130" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -18814,7 +18845,7 @@
       <c r="DW130" s="10"/>
       <c r="DX130" s="10"/>
     </row>
-    <row r="131" ht="14.25" customHeight="1">
+    <row r="131" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -18944,7 +18975,7 @@
       <c r="DW131" s="10"/>
       <c r="DX131" s="10"/>
     </row>
-    <row r="132" ht="14.25" customHeight="1">
+    <row r="132" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
@@ -19074,7 +19105,7 @@
       <c r="DW132" s="10"/>
       <c r="DX132" s="10"/>
     </row>
-    <row r="133" ht="14.25" customHeight="1">
+    <row r="133" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
@@ -19204,7 +19235,7 @@
       <c r="DW133" s="10"/>
       <c r="DX133" s="10"/>
     </row>
-    <row r="134" ht="14.25" customHeight="1">
+    <row r="134" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
@@ -19334,7 +19365,7 @@
       <c r="DW134" s="10"/>
       <c r="DX134" s="10"/>
     </row>
-    <row r="135" ht="14.25" customHeight="1">
+    <row r="135" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
@@ -19464,7 +19495,7 @@
       <c r="DW135" s="10"/>
       <c r="DX135" s="10"/>
     </row>
-    <row r="136" ht="14.25" customHeight="1">
+    <row r="136" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
@@ -19594,7 +19625,7 @@
       <c r="DW136" s="10"/>
       <c r="DX136" s="10"/>
     </row>
-    <row r="137" ht="14.25" customHeight="1">
+    <row r="137" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
@@ -19724,7 +19755,7 @@
       <c r="DW137" s="10"/>
       <c r="DX137" s="10"/>
     </row>
-    <row r="138" ht="14.25" customHeight="1">
+    <row r="138" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
@@ -19854,7 +19885,7 @@
       <c r="DW138" s="10"/>
       <c r="DX138" s="10"/>
     </row>
-    <row r="139" ht="14.25" customHeight="1">
+    <row r="139" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
@@ -19984,7 +20015,7 @@
       <c r="DW139" s="10"/>
       <c r="DX139" s="10"/>
     </row>
-    <row r="140" ht="14.25" customHeight="1">
+    <row r="140" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
@@ -20114,7 +20145,7 @@
       <c r="DW140" s="10"/>
       <c r="DX140" s="10"/>
     </row>
-    <row r="141" ht="14.25" customHeight="1">
+    <row r="141" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
@@ -20244,7 +20275,7 @@
       <c r="DW141" s="10"/>
       <c r="DX141" s="10"/>
     </row>
-    <row r="142" ht="14.25" customHeight="1">
+    <row r="142" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -20374,7 +20405,7 @@
       <c r="DW142" s="10"/>
       <c r="DX142" s="10"/>
     </row>
-    <row r="143" ht="14.25" customHeight="1">
+    <row r="143" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -20504,7 +20535,7 @@
       <c r="DW143" s="10"/>
       <c r="DX143" s="10"/>
     </row>
-    <row r="144" ht="14.25" customHeight="1">
+    <row r="144" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
@@ -20634,7 +20665,7 @@
       <c r="DW144" s="10"/>
       <c r="DX144" s="10"/>
     </row>
-    <row r="145" ht="14.25" customHeight="1">
+    <row r="145" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -20764,7 +20795,7 @@
       <c r="DW145" s="10"/>
       <c r="DX145" s="10"/>
     </row>
-    <row r="146" ht="14.25" customHeight="1">
+    <row r="146" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
@@ -20894,7 +20925,7 @@
       <c r="DW146" s="10"/>
       <c r="DX146" s="10"/>
     </row>
-    <row r="147" ht="14.25" customHeight="1">
+    <row r="147" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
@@ -21024,7 +21055,7 @@
       <c r="DW147" s="10"/>
       <c r="DX147" s="10"/>
     </row>
-    <row r="148" ht="14.25" customHeight="1">
+    <row r="148" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -21154,7 +21185,7 @@
       <c r="DW148" s="10"/>
       <c r="DX148" s="10"/>
     </row>
-    <row r="149" ht="14.25" customHeight="1">
+    <row r="149" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
@@ -21284,7 +21315,7 @@
       <c r="DW149" s="10"/>
       <c r="DX149" s="10"/>
     </row>
-    <row r="150" ht="14.25" customHeight="1">
+    <row r="150" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
@@ -21414,7 +21445,7 @@
       <c r="DW150" s="10"/>
       <c r="DX150" s="10"/>
     </row>
-    <row r="151" ht="14.25" customHeight="1">
+    <row r="151" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
@@ -21544,7 +21575,7 @@
       <c r="DW151" s="10"/>
       <c r="DX151" s="10"/>
     </row>
-    <row r="152" ht="14.25" customHeight="1">
+    <row r="152" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -21674,7 +21705,7 @@
       <c r="DW152" s="10"/>
       <c r="DX152" s="10"/>
     </row>
-    <row r="153" ht="14.25" customHeight="1">
+    <row r="153" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
@@ -21804,7 +21835,7 @@
       <c r="DW153" s="10"/>
       <c r="DX153" s="10"/>
     </row>
-    <row r="154" ht="14.25" customHeight="1">
+    <row r="154" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -21934,7 +21965,7 @@
       <c r="DW154" s="10"/>
       <c r="DX154" s="10"/>
     </row>
-    <row r="155" ht="14.25" customHeight="1">
+    <row r="155" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
@@ -22064,7 +22095,7 @@
       <c r="DW155" s="10"/>
       <c r="DX155" s="10"/>
     </row>
-    <row r="156" ht="14.25" customHeight="1">
+    <row r="156" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -22194,7 +22225,7 @@
       <c r="DW156" s="10"/>
       <c r="DX156" s="10"/>
     </row>
-    <row r="157" ht="14.25" customHeight="1">
+    <row r="157" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
@@ -22324,7 +22355,7 @@
       <c r="DW157" s="10"/>
       <c r="DX157" s="10"/>
     </row>
-    <row r="158" ht="14.25" customHeight="1">
+    <row r="158" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
@@ -22454,7 +22485,7 @@
       <c r="DW158" s="10"/>
       <c r="DX158" s="10"/>
     </row>
-    <row r="159" ht="14.25" customHeight="1">
+    <row r="159" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -22584,7 +22615,7 @@
       <c r="DW159" s="10"/>
       <c r="DX159" s="10"/>
     </row>
-    <row r="160" ht="14.25" customHeight="1">
+    <row r="160" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
@@ -22714,7 +22745,7 @@
       <c r="DW160" s="10"/>
       <c r="DX160" s="10"/>
     </row>
-    <row r="161" ht="14.25" customHeight="1">
+    <row r="161" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
@@ -22844,7 +22875,7 @@
       <c r="DW161" s="10"/>
       <c r="DX161" s="10"/>
     </row>
-    <row r="162" ht="14.25" customHeight="1">
+    <row r="162" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
@@ -22974,7 +23005,7 @@
       <c r="DW162" s="10"/>
       <c r="DX162" s="10"/>
     </row>
-    <row r="163" ht="14.25" customHeight="1">
+    <row r="163" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
@@ -23104,7 +23135,7 @@
       <c r="DW163" s="10"/>
       <c r="DX163" s="10"/>
     </row>
-    <row r="164" ht="14.25" customHeight="1">
+    <row r="164" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
@@ -23234,7 +23265,7 @@
       <c r="DW164" s="10"/>
       <c r="DX164" s="10"/>
     </row>
-    <row r="165" ht="14.25" customHeight="1">
+    <row r="165" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
@@ -23364,7 +23395,7 @@
       <c r="DW165" s="10"/>
       <c r="DX165" s="10"/>
     </row>
-    <row r="166" ht="14.25" customHeight="1">
+    <row r="166" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
@@ -23494,7 +23525,7 @@
       <c r="DW166" s="10"/>
       <c r="DX166" s="10"/>
     </row>
-    <row r="167" ht="14.25" customHeight="1">
+    <row r="167" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
@@ -23624,7 +23655,7 @@
       <c r="DW167" s="10"/>
       <c r="DX167" s="10"/>
     </row>
-    <row r="168" ht="14.25" customHeight="1">
+    <row r="168" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
@@ -23754,7 +23785,7 @@
       <c r="DW168" s="10"/>
       <c r="DX168" s="10"/>
     </row>
-    <row r="169" ht="14.25" customHeight="1">
+    <row r="169" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
@@ -23884,7 +23915,7 @@
       <c r="DW169" s="10"/>
       <c r="DX169" s="10"/>
     </row>
-    <row r="170" ht="14.25" customHeight="1">
+    <row r="170" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
@@ -24014,7 +24045,7 @@
       <c r="DW170" s="10"/>
       <c r="DX170" s="10"/>
     </row>
-    <row r="171" ht="14.25" customHeight="1">
+    <row r="171" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
@@ -24144,7 +24175,7 @@
       <c r="DW171" s="10"/>
       <c r="DX171" s="10"/>
     </row>
-    <row r="172" ht="14.25" customHeight="1">
+    <row r="172" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
@@ -24274,7 +24305,7 @@
       <c r="DW172" s="10"/>
       <c r="DX172" s="10"/>
     </row>
-    <row r="173" ht="14.25" customHeight="1">
+    <row r="173" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
@@ -24404,7 +24435,7 @@
       <c r="DW173" s="10"/>
       <c r="DX173" s="10"/>
     </row>
-    <row r="174" ht="14.25" customHeight="1">
+    <row r="174" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
@@ -24534,7 +24565,7 @@
       <c r="DW174" s="10"/>
       <c r="DX174" s="10"/>
     </row>
-    <row r="175" ht="14.25" customHeight="1">
+    <row r="175" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
@@ -24664,7 +24695,7 @@
       <c r="DW175" s="10"/>
       <c r="DX175" s="10"/>
     </row>
-    <row r="176" ht="14.25" customHeight="1">
+    <row r="176" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
@@ -24794,7 +24825,7 @@
       <c r="DW176" s="10"/>
       <c r="DX176" s="10"/>
     </row>
-    <row r="177" ht="14.25" customHeight="1">
+    <row r="177" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="10"/>
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
@@ -24924,7 +24955,7 @@
       <c r="DW177" s="10"/>
       <c r="DX177" s="10"/>
     </row>
-    <row r="178" ht="14.25" customHeight="1">
+    <row r="178" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
@@ -25054,7 +25085,7 @@
       <c r="DW178" s="10"/>
       <c r="DX178" s="10"/>
     </row>
-    <row r="179" ht="14.25" customHeight="1">
+    <row r="179" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="10"/>
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
@@ -25184,7 +25215,7 @@
       <c r="DW179" s="10"/>
       <c r="DX179" s="10"/>
     </row>
-    <row r="180" ht="14.25" customHeight="1">
+    <row r="180" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
@@ -25314,7 +25345,7 @@
       <c r="DW180" s="10"/>
       <c r="DX180" s="10"/>
     </row>
-    <row r="181" ht="14.25" customHeight="1">
+    <row r="181" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -25444,7 +25475,7 @@
       <c r="DW181" s="10"/>
       <c r="DX181" s="10"/>
     </row>
-    <row r="182" ht="14.25" customHeight="1">
+    <row r="182" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
@@ -25574,7 +25605,7 @@
       <c r="DW182" s="10"/>
       <c r="DX182" s="10"/>
     </row>
-    <row r="183" ht="14.25" customHeight="1">
+    <row r="183" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
@@ -25704,7 +25735,7 @@
       <c r="DW183" s="10"/>
       <c r="DX183" s="10"/>
     </row>
-    <row r="184" ht="14.25" customHeight="1">
+    <row r="184" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="10"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
@@ -25834,7 +25865,7 @@
       <c r="DW184" s="10"/>
       <c r="DX184" s="10"/>
     </row>
-    <row r="185" ht="14.25" customHeight="1">
+    <row r="185" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
@@ -25964,7 +25995,7 @@
       <c r="DW185" s="10"/>
       <c r="DX185" s="10"/>
     </row>
-    <row r="186" ht="14.25" customHeight="1">
+    <row r="186" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
@@ -26094,7 +26125,7 @@
       <c r="DW186" s="10"/>
       <c r="DX186" s="10"/>
     </row>
-    <row r="187" ht="14.25" customHeight="1">
+    <row r="187" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
@@ -26224,7 +26255,7 @@
       <c r="DW187" s="10"/>
       <c r="DX187" s="10"/>
     </row>
-    <row r="188" ht="14.25" customHeight="1">
+    <row r="188" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
@@ -26354,7 +26385,7 @@
       <c r="DW188" s="10"/>
       <c r="DX188" s="10"/>
     </row>
-    <row r="189" ht="14.25" customHeight="1">
+    <row r="189" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
@@ -26484,7 +26515,7 @@
       <c r="DW189" s="10"/>
       <c r="DX189" s="10"/>
     </row>
-    <row r="190" ht="14.25" customHeight="1">
+    <row r="190" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
@@ -26614,7 +26645,7 @@
       <c r="DW190" s="10"/>
       <c r="DX190" s="10"/>
     </row>
-    <row r="191" ht="14.25" customHeight="1">
+    <row r="191" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
@@ -26744,7 +26775,7 @@
       <c r="DW191" s="10"/>
       <c r="DX191" s="10"/>
     </row>
-    <row r="192" ht="14.25" customHeight="1">
+    <row r="192" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
@@ -26874,7 +26905,7 @@
       <c r="DW192" s="10"/>
       <c r="DX192" s="10"/>
     </row>
-    <row r="193" ht="14.25" customHeight="1">
+    <row r="193" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
@@ -27004,7 +27035,7 @@
       <c r="DW193" s="10"/>
       <c r="DX193" s="10"/>
     </row>
-    <row r="194" ht="14.25" customHeight="1">
+    <row r="194" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
@@ -27134,7 +27165,7 @@
       <c r="DW194" s="10"/>
       <c r="DX194" s="10"/>
     </row>
-    <row r="195" ht="14.25" customHeight="1">
+    <row r="195" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="10"/>
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
@@ -27264,7 +27295,7 @@
       <c r="DW195" s="10"/>
       <c r="DX195" s="10"/>
     </row>
-    <row r="196" ht="14.25" customHeight="1">
+    <row r="196" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
@@ -27394,7 +27425,7 @@
       <c r="DW196" s="10"/>
       <c r="DX196" s="10"/>
     </row>
-    <row r="197" ht="14.25" customHeight="1">
+    <row r="197" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="10"/>
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
@@ -27524,7 +27555,7 @@
       <c r="DW197" s="10"/>
       <c r="DX197" s="10"/>
     </row>
-    <row r="198" ht="14.25" customHeight="1">
+    <row r="198" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
@@ -27654,7 +27685,7 @@
       <c r="DW198" s="10"/>
       <c r="DX198" s="10"/>
     </row>
-    <row r="199" ht="14.25" customHeight="1">
+    <row r="199" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
@@ -27784,7 +27815,7 @@
       <c r="DW199" s="10"/>
       <c r="DX199" s="10"/>
     </row>
-    <row r="200" ht="14.25" customHeight="1">
+    <row r="200" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="10"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
@@ -27914,7 +27945,7 @@
       <c r="DW200" s="10"/>
       <c r="DX200" s="10"/>
     </row>
-    <row r="201" ht="14.25" customHeight="1">
+    <row r="201" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -28044,7 +28075,7 @@
       <c r="DW201" s="10"/>
       <c r="DX201" s="10"/>
     </row>
-    <row r="202" ht="14.25" customHeight="1">
+    <row r="202" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="10"/>
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
@@ -28174,7 +28205,7 @@
       <c r="DW202" s="10"/>
       <c r="DX202" s="10"/>
     </row>
-    <row r="203" ht="14.25" customHeight="1">
+    <row r="203" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="10"/>
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>
@@ -28304,7 +28335,7 @@
       <c r="DW203" s="10"/>
       <c r="DX203" s="10"/>
     </row>
-    <row r="204" ht="14.25" customHeight="1">
+    <row r="204" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="10"/>
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
@@ -28434,7 +28465,7 @@
       <c r="DW204" s="10"/>
       <c r="DX204" s="10"/>
     </row>
-    <row r="205" ht="14.25" customHeight="1">
+    <row r="205" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="10"/>
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
@@ -28564,7 +28595,7 @@
       <c r="DW205" s="10"/>
       <c r="DX205" s="10"/>
     </row>
-    <row r="206" ht="14.25" customHeight="1">
+    <row r="206" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="10"/>
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
@@ -28694,7 +28725,7 @@
       <c r="DW206" s="10"/>
       <c r="DX206" s="10"/>
     </row>
-    <row r="207" ht="14.25" customHeight="1">
+    <row r="207" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="10"/>
       <c r="B207" s="10"/>
       <c r="C207" s="10"/>
@@ -28824,7 +28855,7 @@
       <c r="DW207" s="10"/>
       <c r="DX207" s="10"/>
     </row>
-    <row r="208" ht="14.25" customHeight="1">
+    <row r="208" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="10"/>
       <c r="B208" s="10"/>
       <c r="C208" s="10"/>
@@ -28954,7 +28985,7 @@
       <c r="DW208" s="10"/>
       <c r="DX208" s="10"/>
     </row>
-    <row r="209" ht="14.25" customHeight="1">
+    <row r="209" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="10"/>
       <c r="B209" s="10"/>
       <c r="C209" s="10"/>
@@ -29084,7 +29115,7 @@
       <c r="DW209" s="10"/>
       <c r="DX209" s="10"/>
     </row>
-    <row r="210" ht="14.25" customHeight="1">
+    <row r="210" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="10"/>
       <c r="B210" s="10"/>
       <c r="C210" s="10"/>
@@ -29214,7 +29245,7 @@
       <c r="DW210" s="10"/>
       <c r="DX210" s="10"/>
     </row>
-    <row r="211" ht="14.25" customHeight="1">
+    <row r="211" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="10"/>
       <c r="B211" s="10"/>
       <c r="C211" s="10"/>
@@ -29344,7 +29375,7 @@
       <c r="DW211" s="10"/>
       <c r="DX211" s="10"/>
     </row>
-    <row r="212" ht="14.25" customHeight="1">
+    <row r="212" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="10"/>
       <c r="B212" s="10"/>
       <c r="C212" s="10"/>
@@ -29474,7 +29505,7 @@
       <c r="DW212" s="10"/>
       <c r="DX212" s="10"/>
     </row>
-    <row r="213" ht="14.25" customHeight="1">
+    <row r="213" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="10"/>
       <c r="B213" s="10"/>
       <c r="C213" s="10"/>
@@ -29604,7 +29635,7 @@
       <c r="DW213" s="10"/>
       <c r="DX213" s="10"/>
     </row>
-    <row r="214" ht="14.25" customHeight="1">
+    <row r="214" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="10"/>
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
@@ -29734,7 +29765,7 @@
       <c r="DW214" s="10"/>
       <c r="DX214" s="10"/>
     </row>
-    <row r="215" ht="14.25" customHeight="1">
+    <row r="215" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="10"/>
       <c r="B215" s="10"/>
       <c r="C215" s="10"/>
@@ -29864,7 +29895,7 @@
       <c r="DW215" s="10"/>
       <c r="DX215" s="10"/>
     </row>
-    <row r="216" ht="14.25" customHeight="1">
+    <row r="216" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="10"/>
       <c r="B216" s="10"/>
       <c r="C216" s="10"/>
@@ -29994,7 +30025,7 @@
       <c r="DW216" s="10"/>
       <c r="DX216" s="10"/>
     </row>
-    <row r="217" ht="14.25" customHeight="1">
+    <row r="217" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="10"/>
       <c r="B217" s="10"/>
       <c r="C217" s="10"/>
@@ -30124,7 +30155,7 @@
       <c r="DW217" s="10"/>
       <c r="DX217" s="10"/>
     </row>
-    <row r="218" ht="14.25" customHeight="1">
+    <row r="218" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -30254,7 +30285,7 @@
       <c r="DW218" s="10"/>
       <c r="DX218" s="10"/>
     </row>
-    <row r="219" ht="14.25" customHeight="1">
+    <row r="219" spans="1:128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="10"/>
       <c r="B219" s="10"/>
       <c r="C219" s="10"/>
@@ -30386,23 +30417,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="DD11:DD12">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0.59999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD11:DD12">
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="3">
       <formula>LEN(TRIM(N11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/assets/resource/5002_KPIs Performance Report_202004_PBO_089_Final.xlsx
+++ b/src/assets/resource/5002_KPIs Performance Report_202004_PBO_089_Final.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hungm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\salesapp-portal\src\assets\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -437,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -599,6 +599,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -650,17 +662,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H11" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+    <sheetView tabSelected="1" topLeftCell="O11" workbookViewId="0">
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -906,19 +909,19 @@
   <sheetData>
     <row r="1" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48"/>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
       <c r="E1" s="44"/>
       <c r="F1" s="44"/>
       <c r="G1" s="44"/>
       <c r="H1" s="45"/>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="67"/>
+      <c r="J1" s="71"/>
       <c r="K1" s="4"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -946,17 +949,17 @@
     </row>
     <row r="2" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43"/>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="52"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
       <c r="K2" s="4"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -984,17 +987,17 @@
     </row>
     <row r="3" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49"/>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="16"/>
       <c r="H3" s="53"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
       <c r="K3" s="4"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -1022,17 +1025,17 @@
     </row>
     <row r="4" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="50"/>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="16"/>
       <c r="H4" s="53"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="73"/>
       <c r="K4" s="4"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -1067,8 +1070,8 @@
       <c r="F5" s="13"/>
       <c r="G5" s="16"/>
       <c r="H5" s="53"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="69"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="4"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -1095,54 +1098,54 @@
       <c r="AH5" s="46"/>
     </row>
     <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="69"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="73"/>
     </row>
     <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="69"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
     </row>
     <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="75"/>
     </row>
     <row r="12" spans="1:34" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="7"/>
@@ -1304,24 +1307,24 @@
       <c r="I16" s="28"/>
       <c r="J16" s="29"/>
       <c r="K16" s="30"/>
-      <c r="L16" s="56" t="s">
+      <c r="L16" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="73" t="s">
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="S16" s="74"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="74"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
     </row>
     <row r="17" spans="1:34" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
@@ -1335,30 +1338,30 @@
       <c r="I17" s="28"/>
       <c r="J17" s="29"/>
       <c r="K17" s="30"/>
-      <c r="L17" s="55" t="s">
+      <c r="L17" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55" t="s">
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="73" t="s">
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="S17" s="74"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="74"/>
-      <c r="V17" s="72" t="s">
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="W17" s="72"/>
-      <c r="X17" s="75" t="s">
+      <c r="W17" s="57"/>
+      <c r="X17" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="Y17" s="75"/>
+      <c r="Y17" s="58"/>
     </row>
     <row r="18" spans="1:34" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
@@ -1524,8 +1527,8 @@
       <c r="Y19" s="6">
         <v>52954810.333279997</v>
       </c>
-      <c r="Z19" s="6">
-        <v>70</v>
+      <c r="Z19" s="76">
+        <v>0.7</v>
       </c>
       <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
@@ -1612,8 +1615,8 @@
       <c r="Y20" s="6">
         <v>0</v>
       </c>
-      <c r="Z20" s="6">
-        <v>80</v>
+      <c r="Z20" s="76">
+        <v>0.8</v>
       </c>
       <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
@@ -8760,13 +8763,7 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="R16:Y16"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="I1:J8"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -8775,7 +8772,13 @@
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I1:J8"/>
+    <mergeCell ref="R16:Y16"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="L16:Q16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/src/assets/resource/5002_KPIs Performance Report_202004_PBO_089_Final.xlsx
+++ b/src/assets/resource/5002_KPIs Performance Report_202004_PBO_089_Final.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\salesapp-portal\src\assets\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hungm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -437,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -599,18 +599,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -662,8 +650,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -882,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O11" workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+    <sheetView tabSelected="1" topLeftCell="H11" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -909,19 +906,19 @@
   <sheetData>
     <row r="1" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48"/>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
       <c r="E1" s="44"/>
       <c r="F1" s="44"/>
       <c r="G1" s="44"/>
       <c r="H1" s="45"/>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="71"/>
+      <c r="J1" s="67"/>
       <c r="K1" s="4"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -949,17 +946,17 @@
     </row>
     <row r="2" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43"/>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="52"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
       <c r="K2" s="4"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -987,17 +984,17 @@
     </row>
     <row r="3" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49"/>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="16"/>
       <c r="H3" s="53"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="69"/>
       <c r="K3" s="4"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -1025,17 +1022,17 @@
     </row>
     <row r="4" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="50"/>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="16"/>
       <c r="H4" s="53"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="73"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
       <c r="K4" s="4"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -1070,8 +1067,8 @@
       <c r="F5" s="13"/>
       <c r="G5" s="16"/>
       <c r="H5" s="53"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="73"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="4"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -1098,54 +1095,54 @@
       <c r="AH5" s="46"/>
     </row>
     <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="73"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="69"/>
     </row>
     <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="73"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="69"/>
     </row>
     <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="75"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="71"/>
     </row>
     <row r="12" spans="1:34" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="7"/>
@@ -1307,24 +1304,24 @@
       <c r="I16" s="28"/>
       <c r="J16" s="29"/>
       <c r="K16" s="30"/>
-      <c r="L16" s="60" t="s">
+      <c r="L16" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="55" t="s">
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="74"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="74"/>
     </row>
     <row r="17" spans="1:34" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
@@ -1338,30 +1335,30 @@
       <c r="I17" s="28"/>
       <c r="J17" s="29"/>
       <c r="K17" s="30"/>
-      <c r="L17" s="59" t="s">
+      <c r="L17" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59" t="s">
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="55" t="s">
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="57" t="s">
+      <c r="S17" s="74"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="74"/>
+      <c r="V17" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="W17" s="57"/>
-      <c r="X17" s="58" t="s">
+      <c r="W17" s="72"/>
+      <c r="X17" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="Y17" s="58"/>
+      <c r="Y17" s="75"/>
     </row>
     <row r="18" spans="1:34" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
@@ -1527,8 +1524,8 @@
       <c r="Y19" s="6">
         <v>52954810.333279997</v>
       </c>
-      <c r="Z19" s="76">
-        <v>0.7</v>
+      <c r="Z19" s="6">
+        <v>70</v>
       </c>
       <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
@@ -1615,8 +1612,8 @@
       <c r="Y20" s="6">
         <v>0</v>
       </c>
-      <c r="Z20" s="76">
-        <v>0.8</v>
+      <c r="Z20" s="6">
+        <v>80</v>
       </c>
       <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
@@ -8763,7 +8760,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J8"/>
+    <mergeCell ref="R16:Y16"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="L16:Q16"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -8772,13 +8775,7 @@
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A8:H8"/>
-    <mergeCell ref="R16:Y16"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="I1:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/src/assets/resource/5002_KPIs Performance Report_202004_PBO_089_Final.xlsx
+++ b/src/assets/resource/5002_KPIs Performance Report_202004_PBO_089_Final.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hungm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\salesapp-portal\src\assets\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -437,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -599,6 +599,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -650,17 +662,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -880,7 +883,7 @@
   <dimension ref="A1:AH221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H11" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+      <selection activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -906,19 +909,19 @@
   <sheetData>
     <row r="1" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48"/>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
       <c r="E1" s="44"/>
       <c r="F1" s="44"/>
       <c r="G1" s="44"/>
       <c r="H1" s="45"/>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="67"/>
+      <c r="J1" s="71"/>
       <c r="K1" s="4"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -946,17 +949,17 @@
     </row>
     <row r="2" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43"/>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="52"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
       <c r="K2" s="4"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -984,17 +987,17 @@
     </row>
     <row r="3" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49"/>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="16"/>
       <c r="H3" s="53"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
       <c r="K3" s="4"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -1022,17 +1025,17 @@
     </row>
     <row r="4" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="50"/>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="16"/>
       <c r="H4" s="53"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="73"/>
       <c r="K4" s="4"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -1067,8 +1070,8 @@
       <c r="F5" s="13"/>
       <c r="G5" s="16"/>
       <c r="H5" s="53"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="69"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="4"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -1095,54 +1098,54 @@
       <c r="AH5" s="46"/>
     </row>
     <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="69"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="73"/>
     </row>
     <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="69"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
     </row>
     <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="75"/>
     </row>
     <row r="12" spans="1:34" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="7"/>
@@ -1304,24 +1307,24 @@
       <c r="I16" s="28"/>
       <c r="J16" s="29"/>
       <c r="K16" s="30"/>
-      <c r="L16" s="56" t="s">
+      <c r="L16" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="73" t="s">
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="S16" s="74"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="74"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
     </row>
     <row r="17" spans="1:34" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
@@ -1335,30 +1338,30 @@
       <c r="I17" s="28"/>
       <c r="J17" s="29"/>
       <c r="K17" s="30"/>
-      <c r="L17" s="55" t="s">
+      <c r="L17" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55" t="s">
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="73" t="s">
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="S17" s="74"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="74"/>
-      <c r="V17" s="72" t="s">
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="W17" s="72"/>
-      <c r="X17" s="75" t="s">
+      <c r="W17" s="57"/>
+      <c r="X17" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="Y17" s="75"/>
+      <c r="Y17" s="58"/>
     </row>
     <row r="18" spans="1:34" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
@@ -1524,8 +1527,8 @@
       <c r="Y19" s="6">
         <v>52954810.333279997</v>
       </c>
-      <c r="Z19" s="6">
-        <v>70</v>
+      <c r="Z19" s="76">
+        <v>0.7</v>
       </c>
       <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
@@ -1612,8 +1615,8 @@
       <c r="Y20" s="6">
         <v>0</v>
       </c>
-      <c r="Z20" s="6">
-        <v>80</v>
+      <c r="Z20" s="76">
+        <v>0.8</v>
       </c>
       <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
@@ -8760,13 +8763,7 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="R16:Y16"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="I1:J8"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -8775,7 +8772,13 @@
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I1:J8"/>
+    <mergeCell ref="R16:Y16"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="L16:Q16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
